--- a/candidates/extra_episodes/STRS DANI.xlsx
+++ b/candidates/extra_episodes/STRS DANI.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
   <si>
     <t xml:space="preserve">MUESTRAS PARA STRs</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">ARREIRO AVIS INES WEN </t>
   </si>
   <si>
+    <t xml:space="preserve">Posible co-infección AY.124 y B.1.1.7 (pero no claro)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEYENDA</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t xml:space="preserve">575, I7</t>
   </si>
   <si>
+    <t xml:space="preserve">Se observa claramente la evolución de dos muestras del mismo linaje</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t xml:space="preserve">596, C8</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1 y B.1.177</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muestra secuenciada</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t xml:space="preserve">605, G2</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.177</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muestra que dista en más de 2 meses a la secuenciada</t>
   </si>
   <si>
@@ -91,7 +103,7 @@
     <t xml:space="preserve">611, E4</t>
   </si>
   <si>
-    <t xml:space="preserve">raro</t>
+    <t xml:space="preserve">raro por Cts</t>
   </si>
   <si>
     <t xml:space="preserve">Muestras de interés por proximidad temporal </t>
@@ -100,6 +112,9 @@
     <t xml:space="preserve">GARCIA GARCIA MARIA </t>
   </si>
   <si>
+    <t xml:space="preserve">Coinfeccion de dos linajes B.1.1.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOLANS LOPEZ MACARENA BEATRIZ</t>
   </si>
   <si>
@@ -112,18 +127,27 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">Primer episodio con pocas posiciones HTZ (B.1.1.7)</t>
+  </si>
+  <si>
     <t xml:space="preserve">297, F6</t>
   </si>
   <si>
     <t xml:space="preserve">667, A6</t>
   </si>
   <si>
+    <t xml:space="preserve">Se conserva más o menos como mayoritario</t>
+  </si>
+  <si>
     <t xml:space="preserve">302, A9</t>
   </si>
   <si>
     <t xml:space="preserve">672, H5</t>
   </si>
   <si>
+    <t xml:space="preserve">Muestra de mala calidad (mucha N)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERA BARRANTES MARIA MAGDALENA</t>
   </si>
   <si>
@@ -136,7 +160,7 @@
     <t xml:space="preserve">640, C1</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja calidad</t>
+    <t xml:space="preserve">Posible coinfección mismo linaje C-39</t>
   </si>
   <si>
     <t xml:space="preserve">283, H5</t>
@@ -145,6 +169,9 @@
     <t xml:space="preserve">651, G4</t>
   </si>
   <si>
+    <t xml:space="preserve">MIRAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUENCA SOLANO CARMEN </t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t xml:space="preserve">711, A3</t>
   </si>
   <si>
+    <t xml:space="preserve">raro descartado</t>
+  </si>
+  <si>
     <t xml:space="preserve">333, B9</t>
   </si>
   <si>
@@ -169,6 +199,9 @@
     <t xml:space="preserve">FONT DIAZ CARBALLO GABRIEL ANGEL</t>
   </si>
   <si>
+    <t xml:space="preserve">No hay muestra</t>
+  </si>
+  <si>
     <t xml:space="preserve">338, I7</t>
   </si>
   <si>
@@ -199,12 +232,18 @@
     <t xml:space="preserve">863, A8</t>
   </si>
   <si>
+    <t xml:space="preserve">Co-infección BA.1 y AY</t>
+  </si>
+  <si>
     <t xml:space="preserve">460, I5</t>
   </si>
   <si>
     <t xml:space="preserve">889, I1</t>
   </si>
   <si>
+    <t xml:space="preserve">Parece que se sobrepone la cepa minoritaria de la muestra anterior</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARTINEZ TILLY LYNETTE </t>
   </si>
   <si>
@@ -223,6 +262,9 @@
     <t xml:space="preserve">GUINALDO ORTEGA EIDER </t>
   </si>
   <si>
+    <t xml:space="preserve">Más de 6 meses de diferencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GONZALEZ HERRERO MARIA </t>
   </si>
   <si>
@@ -247,6 +289,9 @@
     <t xml:space="preserve">722, E8</t>
   </si>
   <si>
+    <t xml:space="preserve">No hay relación entre esta muestra y la siguiente</t>
+  </si>
+  <si>
     <t xml:space="preserve">354, G7</t>
   </si>
   <si>
@@ -265,6 +310,9 @@
     <t xml:space="preserve">836, C8</t>
   </si>
   <si>
+    <t xml:space="preserve">Los dos mayoritarios se parecen (esta y siguiente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">426, C1</t>
   </si>
   <si>
@@ -277,6 +325,9 @@
     <t xml:space="preserve">858, F8</t>
   </si>
   <si>
+    <t xml:space="preserve">El minoritario se asemeja al mayoritario del siguiente episodio (80_59) B.1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">457, E1</t>
   </si>
   <si>
@@ -289,6 +340,9 @@
     <t xml:space="preserve">965, F6</t>
   </si>
   <si>
+    <t xml:space="preserve">mala calidad</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRHACHI MOHAMED</t>
   </si>
   <si>
@@ -310,12 +364,18 @@
     <t xml:space="preserve">723, F4</t>
   </si>
   <si>
+    <t xml:space="preserve">El mayoritario se rescata en la siguiente muestra (AY.55 y AY.70)</t>
+  </si>
+  <si>
     <t xml:space="preserve">346, A4</t>
   </si>
   <si>
     <t xml:space="preserve">731, G7</t>
   </si>
   <si>
+    <t xml:space="preserve">AY.70</t>
+  </si>
+  <si>
     <t xml:space="preserve">VILLEGAS MORENO MARIA BEATRIZ </t>
   </si>
   <si>
@@ -326,6 +386,9 @@
   </si>
   <si>
     <t xml:space="preserve">969, G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-infección BA.1-BA.2</t>
   </si>
   <si>
     <t xml:space="preserve">CIPA1067386582</t>
@@ -363,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -410,13 +473,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +538,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFED7D31"/>
       </patternFill>
@@ -507,7 +590,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,35 +655,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,7 +720,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -681,13 +772,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
@@ -695,9 +786,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="49.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="49.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +800,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -717,7 +809,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -740,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>10541695</v>
       </c>
@@ -758,12 +850,15 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>2411736</v>
       </c>
@@ -774,25 +869,28 @@
         <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>44214</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="n">
         <v>21042364</v>
@@ -805,19 +903,22 @@
         <v>44223</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="n">
         <v>21052176</v>
@@ -830,17 +931,20 @@
         <v>44228</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="13" t="n">
         <v>21056253</v>
@@ -853,20 +957,20 @@
         <v>44230</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>1440554</v>
       </c>
@@ -877,16 +981,19 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>44351</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>10397910</v>
       </c>
@@ -897,16 +1004,16 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>44385</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="n">
         <v>2064508</v>
       </c>
@@ -917,20 +1024,23 @@
         <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>44278</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="11" t="n">
         <v>21148570</v>
@@ -943,13 +1053,16 @@
         <v>44285</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="8" t="n">
         <v>21158721</v>
@@ -962,24 +1075,27 @@
         <v>44294</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>2143004</v>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="4" t="n">
         <v>21356272</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>44428</v>
@@ -987,8 +1103,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
         <v>11166585</v>
       </c>
       <c r="B15" s="11" t="n">
@@ -998,23 +1114,23 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>44259</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
       <c r="B16" s="8" t="n">
         <v>21112071</v>
       </c>
@@ -1026,27 +1142,27 @@
         <v>44263</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>1731550</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="4" t="n">
         <v>21173982</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>41</v>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>44303</v>
@@ -1054,8 +1170,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
         <v>10055754</v>
       </c>
       <c r="B18" s="11" t="n">
@@ -1065,23 +1181,23 @@
         <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>44341</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
       <c r="B19" s="8" t="n">
         <v>21232486</v>
       </c>
@@ -1093,24 +1209,27 @@
         <v>44341</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>10193097</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="4" t="n">
         <v>21240639</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>44347</v>
@@ -1118,7 +1237,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="n">
         <v>10044109</v>
       </c>
@@ -1129,19 +1248,22 @@
         <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>44355</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="11" t="n">
         <v>21253926</v>
@@ -1154,24 +1276,24 @@
         <v>44418</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>10581375</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="4" t="n">
         <v>21314860</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="3" t="n">
         <v>22.84</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>44401</v>
@@ -1179,18 +1301,18 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>11198902</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="4" t="n">
         <v>21331783</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="3" t="n">
         <v>25.1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>44406</v>
@@ -1198,18 +1320,18 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>11196284</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="4" t="n">
         <v>21308079</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="3" t="n">
         <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>44396</v>
@@ -1217,18 +1339,18 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>16082121348964</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="4" t="n">
         <v>21348964</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="3" t="n">
         <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>44424</v>
@@ -1236,18 +1358,18 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>11179749</v>
       </c>
-      <c r="B27" s="16" t="n">
+      <c r="B27" s="4" t="n">
         <v>21354701</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>44427</v>
@@ -1255,7 +1377,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="n">
         <v>11239911</v>
       </c>
@@ -1266,19 +1388,22 @@
         <v>16</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E28" s="10" t="n">
         <v>44547</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="8" t="n">
         <v>21534064</v>
@@ -1291,24 +1416,27 @@
         <v>44553</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>10090217</v>
       </c>
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="4" t="n">
         <v>21232156</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>44341</v>
@@ -1316,18 +1444,18 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>11191514</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="4" t="n">
         <v>21296445</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>25.9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>44379</v>
@@ -1335,18 +1463,18 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>11191689</v>
       </c>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="4" t="n">
         <v>21296708</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>44397</v>
@@ -1354,18 +1482,18 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>2317725</v>
       </c>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="4" t="n">
         <v>21065493</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>44236</v>
@@ -1373,9 +1501,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B34" s="20" t="n">
         <v>21173223</v>
@@ -1383,42 +1511,45 @@
       <c r="C34" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="21" t="n">
+      <c r="D34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="22" t="n">
         <v>44302</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19"/>
-      <c r="B35" s="22" t="n">
+      <c r="B35" s="24" t="n">
         <v>22004218</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="21" t="n">
+      <c r="D35" s="21"/>
+      <c r="E35" s="22" t="n">
         <v>44565</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>804016824</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="4" t="n">
         <v>21293205</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>44396</v>
@@ -1426,18 +1557,18 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>11195741</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="4" t="n">
         <v>21307924</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>24.2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>44400</v>
@@ -1445,18 +1576,18 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="16" t="n">
+        <v>83</v>
+      </c>
+      <c r="B38" s="4" t="n">
         <v>21266922</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>44386</v>
@@ -1464,18 +1595,18 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>1997067</v>
       </c>
-      <c r="B39" s="16" t="n">
+      <c r="B39" s="4" t="n">
         <v>21292118</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>31</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>44390</v>
@@ -1483,8 +1614,8 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="n">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="25" t="n">
         <v>11181411</v>
       </c>
       <c r="B40" s="12" t="n">
@@ -1494,20 +1625,23 @@
         <v>21</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E40" s="22" t="n">
         <v>44371</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="25"/>
       <c r="B41" s="12" t="n">
         <v>21294554</v>
       </c>
@@ -1515,18 +1649,21 @@
         <v>20</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="21" t="n">
+      <c r="E41" s="22" t="n">
         <v>44393</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="25"/>
       <c r="B42" s="8" t="n">
         <v>21386692</v>
       </c>
@@ -1538,14 +1675,17 @@
         <v>44438</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25"/>
       <c r="B43" s="11" t="n">
         <v>21410922</v>
       </c>
@@ -1557,14 +1697,17 @@
         <v>44474</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="25"/>
       <c r="B44" s="11" t="n">
         <v>21461036</v>
       </c>
@@ -1576,14 +1719,17 @@
         <v>44510</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="n">
         <v>21511457</v>
       </c>
@@ -1595,14 +1741,17 @@
         <v>44544</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="25"/>
       <c r="B46" s="8" t="n">
         <v>21531147</v>
       </c>
@@ -1614,14 +1763,14 @@
         <v>44552</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="n">
         <v>22026819</v>
       </c>
@@ -1633,24 +1782,27 @@
         <v>44578</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>11200905</v>
       </c>
-      <c r="B48" s="16" t="n">
+      <c r="B48" s="4" t="n">
         <v>21340000</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>30.6</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>44415</v>
@@ -1658,18 +1810,18 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>2233145</v>
       </c>
-      <c r="B49" s="16" t="n">
+      <c r="B49" s="4" t="n">
         <v>21322985</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>44404</v>
@@ -1677,18 +1829,18 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>10399913</v>
       </c>
-      <c r="B50" s="16" t="n">
+      <c r="B50" s="4" t="n">
         <v>21007127</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>44201</v>
@@ -1696,18 +1848,18 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>10243490</v>
       </c>
-      <c r="B51" s="16" t="n">
+      <c r="B51" s="4" t="n">
         <v>21234044</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>44342</v>
@@ -1715,7 +1867,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>2385252</v>
       </c>
@@ -1726,19 +1878,22 @@
         <v>28</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E52" s="10" t="n">
         <v>44371</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="n">
         <v>21299129</v>
@@ -1751,24 +1906,27 @@
         <v>44382</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>11199380</v>
       </c>
-      <c r="B54" s="16" t="n">
+      <c r="B54" s="4" t="n">
         <v>21334202</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>29.09</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>44409</v>
@@ -1776,8 +1934,8 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="n">
         <v>810214359</v>
       </c>
       <c r="B55" s="11" t="n">
@@ -1787,20 +1945,23 @@
         <v>24</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E55" s="10" t="n">
         <v>44609</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18"/>
+        <v>121</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16"/>
       <c r="B56" s="8" t="n">
         <v>22085553</v>
       </c>
@@ -1812,24 +1973,27 @@
         <v>44616</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="B57" s="4" t="n">
         <v>21111767</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>15</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>44263</v>
@@ -1837,18 +2001,18 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>11190674</v>
       </c>
-      <c r="B58" s="16" t="n">
+      <c r="B58" s="4" t="n">
         <v>21279108</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>24.1</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>44375</v>
@@ -1856,18 +2020,18 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>11193102</v>
       </c>
-      <c r="B59" s="16" t="n">
+      <c r="B59" s="4" t="n">
         <v>21288015</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>30.4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>44386</v>
@@ -1875,18 +2039,18 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>2187273</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="4" t="n">
         <v>21351063</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>44424</v>
@@ -1894,18 +2058,18 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
         <v>11197001</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="4" t="n">
         <v>21312626</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>44399</v>
@@ -1913,18 +2077,18 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>10064122</v>
       </c>
-      <c r="B62" s="16" t="n">
+      <c r="B62" s="4" t="n">
         <v>21354251</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E62" s="5" t="n">
         <v>44426</v>
@@ -1932,18 +2096,18 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
         <v>16082121348973</v>
       </c>
-      <c r="B63" s="16" t="n">
+      <c r="B63" s="4" t="n">
         <v>21348973</v>
       </c>
       <c r="C63" s="3" t="n">
         <v>29</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>44427</v>
@@ -1951,18 +2115,18 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>11191169</v>
       </c>
-      <c r="B64" s="16" t="n">
+      <c r="B64" s="4" t="n">
         <v>21281572</v>
       </c>
       <c r="C64" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E64" s="5" t="n">
         <v>44377</v>
@@ -1973,7 +2137,7 @@
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="A1:G2"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="A11:A13"/>
